--- a/public/bigdata.xlsx
+++ b/public/bigdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web.Learn\NodeJS\TimeTable\timetable-maker\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B58F80-BFA3-4184-B15E-95A2F5C66453}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE64B5E-33A2-4DB6-B4C8-FD98FBE09F81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="2115" windowWidth="15375" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5171,7 +5171,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -5383,7 +5383,7 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5668,8 +5668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="C217" workbookViewId="0">
+      <selection activeCell="L221" sqref="L221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19990,7 +19990,7 @@
         <v>40</v>
       </c>
       <c r="K221" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L221" s="8">
         <v>45</v>
@@ -20114,10 +20114,10 @@
         <v>40</v>
       </c>
       <c r="K223" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L223" s="8">
-        <v>678</v>
+        <v>123</v>
       </c>
       <c r="M223" s="8">
         <v>1</v>
